--- a/groups-analysis.xlsx
+++ b/groups-analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\olt-intermediate-stats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-intermediate-stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63AD312C-3ACC-411D-A676-75C1D3E81B3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8F24B2-ABFF-43C9-8748-C7E25F2C7AB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -238,9 +238,9 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FF3D3935"/>
+      <color rgb="FFFB3338"/>
       <color rgb="FFD23338"/>
-      <color rgb="FFFB3338"/>
-      <color rgb="FF3D3935"/>
     </mruColors>
   </colors>
   <extLst>
@@ -268,62 +268,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Groups</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -355,324 +300,12 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$104</c:f>
+              <c:f>Sheet1!$B$4:$B$141</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$4:$B$104</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="138"/>
                 <c:pt idx="0">
                   <c:v>2.9734390294685955E-7</c:v>
                 </c:pt>
@@ -975,6 +608,117 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>1.1061419099688832E-50</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5.3981072887765765E-52</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.5310480932095036E-53</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.1402169781882576E-54</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4.9351781031311882E-56</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.052326145583807E-57</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>8.2000810716664381E-59</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.14787975955329E-60</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.161037761305745E-61</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>4.1143646060572245E-63</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.4008364268637165E-64</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>4.5824770473988882E-66</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.4402616305438232E-67</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>4.3492132685982986E-69</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.2618514711207478E-70</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3.5174990851902079E-72</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>9.4208040061802338E-74</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2.4242095898157641E-75</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>5.9935009963457913E-77</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.423702407847759E-78</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3.2492720735472156E-80</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>7.1249391080028439E-82</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.5010821372910536E-83</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3.0384771695922393E-85</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>5.9092956493182455E-87</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.1041896724319528E-88</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.9823478475732356E-90</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3.4193555916056193E-92</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>5.6667870302874327E-94</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>9.0231408390960839E-96</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.3804058840254442E-97</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2.0290095361764698E-99</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2.8654286262991689E-101</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3.8879737411187477E-103</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>5.0685679330321145E-105</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>6.3485631056505244E-107</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>7.6400083087626739E-109</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>8.8336551585193934E-111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -982,7 +726,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3AAB-4102-BD77-2F98B87ADC9C}"/>
+              <c16:uniqueId val="{00000000-C38A-4584-89ED-9E34970AC705}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1012,324 +756,12 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$104</c:f>
+              <c:f>Sheet1!$C$4:$C$141</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$4:$C$104</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="138"/>
                 <c:pt idx="0">
                   <c:v>1.5389197253412842E-23</c:v>
                 </c:pt>
@@ -1632,6 +1064,117 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>1.5389197253412842E-23</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.0414611188612204E-24</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.6019232398478258E-25</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3.1862222654019333E-26</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3.748744804683593E-27</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4.2376385070187066E-28</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4.6024614176963103E-29</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4.8026908000170723E-30</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4.8151222636786023E-31</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>4.6382935545122348E-32</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>4.2927674713261212E-33</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3.8171982692736328E-34</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3.2612214696792905E-35</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.6769735985085759E-36</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.1112327004905475E-37</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.5997655514013625E-38</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.1646751199473137E-39</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>8.1466953550556908E-41</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>5.4750283847106161E-42</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3.5352448205070021E-43</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.1932131187779426E-44</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.3072853550637316E-45</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>7.4866611597700179E-47</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>4.119402044817862E-48</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.1777519106554431E-49</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.1061419099688832E-50</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>5.3981072887765765E-52</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2.5310480932095036E-53</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.1402169781882576E-54</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>4.9351781031311882E-56</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2.052326145583807E-57</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>8.2000810716664381E-59</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3.14787975955329E-60</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.161037761305745E-61</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>4.1143646060572245E-63</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.4008364268637165E-64</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>4.5824770473988882E-66</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.4402616305438232E-67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1639,7 +1182,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3AAB-4102-BD77-2F98B87ADC9C}"/>
+              <c16:uniqueId val="{00000001-C38A-4584-89ED-9E34970AC705}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1660,7 +1203,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1669,626 +1214,425 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$104</c:f>
+              <c:f>Sheet1!$D$4:$D$141</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="138"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.5174990851902079E-72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.2618514711207478E-70</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>4.3492132685982986E-69</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>1.4402616305438232E-67</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.5824770473988882E-66</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>1.4008364268637165E-64</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>4.1143646060572245E-63</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>1.161037761305745E-61</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>3.14787975955329E-60</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>8.2000810716664381E-59</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>2.052326145583807E-57</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>4.9351781031311882E-56</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>1.1402169781882576E-54</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>2.5310480932095036E-53</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>5.3981072887765765E-52</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>1.1061419099688832E-50</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>2.1777519106554431E-49</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>4.119402044817862E-48</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>7.4866611597700179E-47</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>1.3072853550637316E-45</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>2.1932131187779426E-44</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>3.5352448205070021E-43</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>5.4750283847106161E-42</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>8.1466953550556908E-41</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24</c:v>
+                  <c:v>1.1646751199473137E-39</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>1.5997655514013625E-38</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26</c:v>
+                  <c:v>2.1112327004905475E-37</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27</c:v>
+                  <c:v>2.6769735985085759E-36</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28</c:v>
+                  <c:v>3.2612214696792905E-35</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29</c:v>
+                  <c:v>3.8171982692736328E-34</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30</c:v>
+                  <c:v>4.2927674713261212E-33</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31</c:v>
+                  <c:v>4.6382935545122348E-32</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32</c:v>
+                  <c:v>4.8151222636786023E-31</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33</c:v>
+                  <c:v>4.8026908000170723E-30</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34</c:v>
+                  <c:v>4.6024614176963103E-29</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35</c:v>
+                  <c:v>4.2376385070187066E-28</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36</c:v>
+                  <c:v>3.748744804683593E-27</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37</c:v>
+                  <c:v>3.1862222654019333E-26</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38</c:v>
+                  <c:v>2.6019232398478258E-25</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39</c:v>
+                  <c:v>2.0414611188612204E-24</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40</c:v>
+                  <c:v>1.5389197253412842E-23</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41</c:v>
+                  <c:v>1.1146000045441383E-22</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42</c:v>
+                  <c:v>7.7562238634939208E-22</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43</c:v>
+                  <c:v>5.1857294022007419E-21</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44</c:v>
+                  <c:v>3.3311760647598577E-20</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45</c:v>
+                  <c:v>2.0559547143337832E-19</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>46</c:v>
+                  <c:v>1.2191516259124836E-18</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47</c:v>
+                  <c:v>6.9459254971324167E-18</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>48</c:v>
+                  <c:v>3.8021630758159273E-17</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>49</c:v>
+                  <c:v>1.999675749699436E-16</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>50</c:v>
+                  <c:v>1.0104542167073785E-15</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>51</c:v>
+                  <c:v>4.9057105713928646E-15</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>52</c:v>
+                  <c:v>2.2883129803602738E-14</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>53</c:v>
+                  <c:v>1.0255507273593326E-13</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>54</c:v>
+                  <c:v>4.4159799262742782E-13</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>55</c:v>
+                  <c:v>1.8269440816729187E-12</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>56</c:v>
+                  <c:v>7.2619230035836012E-12</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>57</c:v>
+                  <c:v>2.7733599883306343E-11</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>58</c:v>
+                  <c:v>1.0176280563290078E-10</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>59</c:v>
+                  <c:v>3.5875678159281587E-10</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>60</c:v>
+                  <c:v>1.2151765699646572E-9</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>61</c:v>
+                  <c:v>3.9546392812489344E-9</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>62</c:v>
+                  <c:v>1.2365241000331714E-8</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>63</c:v>
+                  <c:v>3.7147236891105796E-8</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>64</c:v>
+                  <c:v>1.0722070689395228E-7</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>65</c:v>
+                  <c:v>2.9734390294685955E-7</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>66</c:v>
+                  <c:v>7.922598182064151E-7</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>67</c:v>
+                  <c:v>2.0281704130973521E-6</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>68</c:v>
+                  <c:v>4.9884942580107064E-6</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>69</c:v>
+                  <c:v>1.1788613551307972E-5</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>70</c:v>
+                  <c:v>2.6766045152977071E-5</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>71</c:v>
+                  <c:v>5.8389385158292053E-5</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>72</c:v>
+                  <c:v>1.2238038602275437E-4</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>73</c:v>
+                  <c:v>2.4644383369460396E-4</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>74</c:v>
+                  <c:v>4.768176402929681E-4</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>75</c:v>
+                  <c:v>8.8636968238760153E-4</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>76</c:v>
+                  <c:v>1.5830903165959939E-3</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>77</c:v>
+                  <c:v>2.7165938467371225E-3</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>78</c:v>
+                  <c:v>4.4789060589685804E-3</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>79</c:v>
+                  <c:v>7.0949185692462842E-3</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>80</c:v>
+                  <c:v>1.0798193302637612E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>81</c:v>
+                  <c:v>1.5790031660178828E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>82</c:v>
+                  <c:v>2.2184166935891109E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>83</c:v>
+                  <c:v>2.9945493127148972E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>84</c:v>
+                  <c:v>3.8837210996642592E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>85</c:v>
+                  <c:v>4.8394144903828672E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>86</c:v>
+                  <c:v>5.7938310552296549E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>87</c:v>
+                  <c:v>6.6644920578359926E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>88</c:v>
+                  <c:v>7.3654028060664664E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>89</c:v>
+                  <c:v>7.8208538795091181E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>90</c:v>
+                  <c:v>7.9788456080286549E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>91</c:v>
+                  <c:v>7.8208538795091181E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>92</c:v>
+                  <c:v>7.3654028060664664E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>93</c:v>
+                  <c:v>6.6644920578359926E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>94</c:v>
+                  <c:v>5.7938310552296549E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>95</c:v>
+                  <c:v>4.8394144903828672E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>96</c:v>
+                  <c:v>3.8837210996642592E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>97</c:v>
+                  <c:v>2.9945493127148972E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>98</c:v>
+                  <c:v>2.2184166935891109E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>99</c:v>
+                  <c:v>1.5790031660178828E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$4:$D$104</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>1.1061419099688832E-50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.1777519106554431E-49</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.119402044817862E-48</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.4866611597700179E-47</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.3072853550637316E-45</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.1932131187779426E-44</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5352448205070021E-43</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.4750283847106161E-42</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.1466953550556908E-41</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1646751199473137E-39</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.5997655514013625E-38</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.1112327004905475E-37</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.6769735985085759E-36</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.2612214696792905E-35</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.8171982692736328E-34</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.2927674713261212E-33</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.6382935545122348E-32</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.8151222636786023E-31</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.8026908000170723E-30</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.6024614176963103E-29</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.2376385070187066E-28</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.748744804683593E-27</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.1862222654019333E-26</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.6019232398478258E-25</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.0414611188612204E-24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.5389197253412842E-23</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.1146000045441383E-22</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.7562238634939208E-22</c:v>
-                </c:pt>
-                <c:pt idx="28">
+                  <c:v>1.0798193302637612E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>7.0949185692462842E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4.4789060589685804E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.7165938467371225E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.5830903165959939E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>8.8636968238760153E-4</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4.768176402929681E-4</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.4644383369460396E-4</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.2238038602275437E-4</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5.8389385158292053E-5</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.6766045152977071E-5</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.1788613551307972E-5</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4.9884942580107064E-6</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.0281704130973521E-6</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>7.922598182064151E-7</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.9734390294685955E-7</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.0722070689395228E-7</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3.7147236891105796E-8</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.2365241000331714E-8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3.9546392812489344E-9</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.2151765699646572E-9</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3.5875678159281587E-10</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.0176280563290078E-10</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.7733599883306343E-11</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>7.2619230035836012E-12</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.8269440816729187E-12</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>4.4159799262742782E-13</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.0255507273593326E-13</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2.2883129803602738E-14</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>4.9057105713928646E-15</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.0104542167073785E-15</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.999675749699436E-16</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3.8021630758159273E-17</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>6.9459254971324167E-18</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.2191516259124836E-18</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2.0559547143337832E-19</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3.3311760647598577E-20</c:v>
+                </c:pt>
+                <c:pt idx="137">
                   <c:v>5.1857294022007419E-21</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.3311760647598577E-20</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.0559547143337832E-19</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.2191516259124836E-18</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>6.9459254971324167E-18</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.8021630758159273E-17</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.999675749699436E-16</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.0104542167073785E-15</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4.9057105713928646E-15</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2.2883129803602738E-14</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.0255507273593326E-13</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4.4159799262742782E-13</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.8269440816729187E-12</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>7.2619230035836012E-12</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2.7733599883306343E-11</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.0176280563290078E-10</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3.5875678159281587E-10</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.2151765699646572E-9</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.9546392812489344E-9</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.2365241000331714E-8</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3.7147236891105796E-8</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.0722070689395228E-7</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2.9734390294685955E-7</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>7.922598182064151E-7</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2.0281704130973521E-6</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>4.9884942580107064E-6</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.1788613551307972E-5</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2.6766045152977071E-5</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5.8389385158292053E-5</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.2238038602275437E-4</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2.4644383369460396E-4</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>4.768176402929681E-4</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>8.8636968238760153E-4</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.5830903165959939E-3</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2.7165938467371225E-3</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>4.4789060589685804E-3</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>7.0949185692462842E-3</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.0798193302637612E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.5790031660178828E-2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2.2184166935891109E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2.9945493127148972E-2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>3.8837210996642592E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>4.8394144903828672E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>5.7938310552296549E-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>6.6644920578359926E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>7.3654028060664664E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>7.8208538795091181E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>7.9788456080286549E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>7.8208538795091181E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>7.3654028060664664E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>6.6644920578359926E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>5.7938310552296549E-2</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>4.8394144903828672E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>3.8837210996642592E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2.9945493127148972E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2.2184166935891109E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1.5790031660178828E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1.0798193302637612E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>7.0949185692462842E-3</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>4.4789060589685804E-3</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>2.7165938467371225E-3</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1.5830903165959939E-3</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>8.8636968238760153E-4</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>4.768176402929681E-4</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2.4644383369460396E-4</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1.2238038602275437E-4</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>5.8389385158292053E-5</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2.6766045152977071E-5</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1.1788613551307972E-5</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>4.9884942580107064E-6</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2.0281704130973521E-6</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>7.922598182064151E-7</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2.9734390294685955E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2296,7 +1640,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3AAB-4102-BD77-2F98B87ADC9C}"/>
+              <c16:uniqueId val="{00000002-C38A-4584-89ED-9E34970AC705}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2309,54 +1653,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1808268351"/>
-        <c:axId val="2050693839"/>
+        <c:axId val="566448223"/>
+        <c:axId val="486888847"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1808268351"/>
+        <c:axId val="566448223"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2050693839"/>
+        <c:crossAx val="486888847"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2364,58 +1675,17 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2050693839"/>
+        <c:axId val="486888847"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1808268351"/>
+        <c:crossAx val="566448223"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2427,37 +1697,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3056,22 +2295,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>395814</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>486832</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>21167</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93749F93-A5DA-4A65-A4FF-945148953B66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5DF1E9E-84F6-44B7-B29E-B1879E9D7935}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3087,6 +2326,116 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D559354-1A6C-43CE-AECA-2A24BBD32A9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7315200" y="426720"/>
+          <a:ext cx="7620" cy="3124200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E51FCD37-2E67-402A-A85D-2E434BCFA4E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7482840" y="533400"/>
+          <a:ext cx="1653540" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3389,18 +2738,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A21CF2-F045-4933-8F09-4E42461A7DCE}">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.64453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3411,10 +2760,10 @@
         <v>50</v>
       </c>
       <c r="D1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3428,7 +2777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3442,7 +2791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -3456,10 +2805,10 @@
       </c>
       <c r="D4">
         <f>_xlfn.NORM.DIST($A4,D$1,D$2,0)</f>
-        <v>1.1061419099688832E-50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+        <v>3.5174990851902079E-72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3473,10 +2822,10 @@
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>2.1777519106554431E-49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+        <v>1.2618514711207478E-70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -3490,10 +2839,10 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>4.119402044817862E-48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+        <v>4.3492132685982986E-69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -3507,10 +2856,10 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>7.4866611597700179E-47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+        <v>1.4402616305438232E-67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -3524,10 +2873,10 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>1.3072853550637316E-45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+        <v>4.5824770473988882E-66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -3541,10 +2890,10 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>2.1932131187779426E-44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+        <v>1.4008364268637165E-64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
@@ -3558,10 +2907,10 @@
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>3.5352448205070021E-43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+        <v>4.1143646060572245E-63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7</v>
       </c>
@@ -3575,10 +2924,10 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>5.4750283847106161E-42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+        <v>1.161037761305745E-61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
@@ -3592,10 +2941,10 @@
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>8.1466953550556908E-41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+        <v>3.14787975955329E-60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>9</v>
       </c>
@@ -3609,10 +2958,10 @@
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>1.1646751199473137E-39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+        <v>8.2000810716664381E-59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
@@ -3626,10 +2975,10 @@
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>1.5997655514013625E-38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+        <v>2.052326145583807E-57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>11</v>
       </c>
@@ -3643,10 +2992,10 @@
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>2.1112327004905475E-37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+        <v>4.9351781031311882E-56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12</v>
       </c>
@@ -3660,10 +3009,10 @@
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>2.6769735985085759E-36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+        <v>1.1402169781882576E-54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>13</v>
       </c>
@@ -3677,10 +3026,10 @@
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>3.2612214696792905E-35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+        <v>2.5310480932095036E-53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>14</v>
       </c>
@@ -3694,10 +3043,10 @@
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>3.8171982692736328E-34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+        <v>5.3981072887765765E-52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>15</v>
       </c>
@@ -3711,10 +3060,10 @@
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>4.2927674713261212E-33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+        <v>1.1061419099688832E-50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>16</v>
       </c>
@@ -3728,10 +3077,10 @@
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>4.6382935545122348E-32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+        <v>2.1777519106554431E-49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>17</v>
       </c>
@@ -3745,10 +3094,10 @@
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>4.8151222636786023E-31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+        <v>4.119402044817862E-48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>18</v>
       </c>
@@ -3762,10 +3111,10 @@
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>4.8026908000170723E-30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7.4866611597700179E-47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>19</v>
       </c>
@@ -3779,10 +3128,10 @@
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>4.6024614176963103E-29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+        <v>1.3072853550637316E-45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>20</v>
       </c>
@@ -3796,10 +3145,10 @@
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>4.2376385070187066E-28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+        <v>2.1932131187779426E-44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>21</v>
       </c>
@@ -3813,10 +3162,10 @@
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>3.748744804683593E-27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
+        <v>3.5352448205070021E-43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>22</v>
       </c>
@@ -3830,10 +3179,10 @@
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>3.1862222654019333E-26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
+        <v>5.4750283847106161E-42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>23</v>
       </c>
@@ -3847,10 +3196,10 @@
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>2.6019232398478258E-25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+        <v>8.1466953550556908E-41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>24</v>
       </c>
@@ -3864,10 +3213,10 @@
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>2.0414611188612204E-24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+        <v>1.1646751199473137E-39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>25</v>
       </c>
@@ -3881,10 +3230,10 @@
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>1.5389197253412842E-23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
+        <v>1.5997655514013625E-38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>26</v>
       </c>
@@ -3898,10 +3247,10 @@
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>1.1146000045441383E-22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
+        <v>2.1112327004905475E-37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>27</v>
       </c>
@@ -3915,10 +3264,10 @@
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>7.7562238634939208E-22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+        <v>2.6769735985085759E-36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>28</v>
       </c>
@@ -3932,10 +3281,10 @@
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>5.1857294022007419E-21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
+        <v>3.2612214696792905E-35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>29</v>
       </c>
@@ -3949,10 +3298,10 @@
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>3.3311760647598577E-20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
+        <v>3.8171982692736328E-34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>30</v>
       </c>
@@ -3966,10 +3315,10 @@
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>2.0559547143337832E-19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
+        <v>4.2927674713261212E-33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>31</v>
       </c>
@@ -3983,10 +3332,10 @@
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
-        <v>1.2191516259124836E-18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
+        <v>4.6382935545122348E-32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>32</v>
       </c>
@@ -4000,10 +3349,10 @@
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>6.9459254971324167E-18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
+        <v>4.8151222636786023E-31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>33</v>
       </c>
@@ -4017,10 +3366,10 @@
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>3.8021630758159273E-17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
+        <v>4.8026908000170723E-30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>34</v>
       </c>
@@ -4034,10 +3383,10 @@
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>1.999675749699436E-16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
+        <v>4.6024614176963103E-29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>35</v>
       </c>
@@ -4051,10 +3400,10 @@
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
-        <v>1.0104542167073785E-15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
+        <v>4.2376385070187066E-28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>36</v>
       </c>
@@ -4068,10 +3417,10 @@
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
-        <v>4.9057105713928646E-15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
+        <v>3.748744804683593E-27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>37</v>
       </c>
@@ -4085,10 +3434,10 @@
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
-        <v>2.2883129803602738E-14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
+        <v>3.1862222654019333E-26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>38</v>
       </c>
@@ -4102,10 +3451,10 @@
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
-        <v>1.0255507273593326E-13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
+        <v>2.6019232398478258E-25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>39</v>
       </c>
@@ -4119,10 +3468,10 @@
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
-        <v>4.4159799262742782E-13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
+        <v>2.0414611188612204E-24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>40</v>
       </c>
@@ -4136,10 +3485,10 @@
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
-        <v>1.8269440816729187E-12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
+        <v>1.5389197253412842E-23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>41</v>
       </c>
@@ -4153,10 +3502,10 @@
       </c>
       <c r="D45">
         <f t="shared" si="0"/>
-        <v>7.2619230035836012E-12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
+        <v>1.1146000045441383E-22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>42</v>
       </c>
@@ -4170,10 +3519,10 @@
       </c>
       <c r="D46">
         <f t="shared" si="0"/>
-        <v>2.7733599883306343E-11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7.7562238634939208E-22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>43</v>
       </c>
@@ -4187,10 +3536,10 @@
       </c>
       <c r="D47">
         <f t="shared" si="0"/>
-        <v>1.0176280563290078E-10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
+        <v>5.1857294022007419E-21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>44</v>
       </c>
@@ -4204,10 +3553,10 @@
       </c>
       <c r="D48">
         <f t="shared" si="0"/>
-        <v>3.5875678159281587E-10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
+        <v>3.3311760647598577E-20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>45</v>
       </c>
@@ -4221,10 +3570,10 @@
       </c>
       <c r="D49">
         <f t="shared" si="0"/>
-        <v>1.2151765699646572E-9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
+        <v>2.0559547143337832E-19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>46</v>
       </c>
@@ -4238,10 +3587,10 @@
       </c>
       <c r="D50">
         <f t="shared" si="0"/>
-        <v>3.9546392812489344E-9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
+        <v>1.2191516259124836E-18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>47</v>
       </c>
@@ -4255,10 +3604,10 @@
       </c>
       <c r="D51">
         <f t="shared" si="0"/>
-        <v>1.2365241000331714E-8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
+        <v>6.9459254971324167E-18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>48</v>
       </c>
@@ -4272,10 +3621,10 @@
       </c>
       <c r="D52">
         <f t="shared" si="0"/>
-        <v>3.7147236891105796E-8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
+        <v>3.8021630758159273E-17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>49</v>
       </c>
@@ -4289,10 +3638,10 @@
       </c>
       <c r="D53">
         <f t="shared" si="0"/>
-        <v>1.0722070689395228E-7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
+        <v>1.999675749699436E-16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>50</v>
       </c>
@@ -4306,10 +3655,10 @@
       </c>
       <c r="D54">
         <f t="shared" si="0"/>
-        <v>2.9734390294685955E-7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.5">
+        <v>1.0104542167073785E-15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>51</v>
       </c>
@@ -4323,10 +3672,10 @@
       </c>
       <c r="D55">
         <f t="shared" si="0"/>
-        <v>7.922598182064151E-7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.5">
+        <v>4.9057105713928646E-15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>52</v>
       </c>
@@ -4340,10 +3689,10 @@
       </c>
       <c r="D56">
         <f t="shared" si="0"/>
-        <v>2.0281704130973521E-6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.5">
+        <v>2.2883129803602738E-14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>53</v>
       </c>
@@ -4357,10 +3706,10 @@
       </c>
       <c r="D57">
         <f t="shared" si="0"/>
-        <v>4.9884942580107064E-6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.5">
+        <v>1.0255507273593326E-13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>54</v>
       </c>
@@ -4374,10 +3723,10 @@
       </c>
       <c r="D58">
         <f t="shared" si="0"/>
-        <v>1.1788613551307972E-5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
+        <v>4.4159799262742782E-13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>55</v>
       </c>
@@ -4391,10 +3740,10 @@
       </c>
       <c r="D59">
         <f t="shared" si="0"/>
-        <v>2.6766045152977071E-5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
+        <v>1.8269440816729187E-12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>56</v>
       </c>
@@ -4408,10 +3757,10 @@
       </c>
       <c r="D60">
         <f t="shared" si="0"/>
-        <v>5.8389385158292053E-5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7.2619230035836012E-12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>57</v>
       </c>
@@ -4425,10 +3774,10 @@
       </c>
       <c r="D61">
         <f t="shared" si="0"/>
-        <v>1.2238038602275437E-4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.5">
+        <v>2.7733599883306343E-11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>58</v>
       </c>
@@ -4442,10 +3791,10 @@
       </c>
       <c r="D62">
         <f t="shared" si="0"/>
-        <v>2.4644383369460396E-4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.5">
+        <v>1.0176280563290078E-10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>59</v>
       </c>
@@ -4459,10 +3808,10 @@
       </c>
       <c r="D63">
         <f t="shared" si="0"/>
-        <v>4.768176402929681E-4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.5">
+        <v>3.5875678159281587E-10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>60</v>
       </c>
@@ -4476,10 +3825,10 @@
       </c>
       <c r="D64">
         <f t="shared" si="0"/>
-        <v>8.8636968238760153E-4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.5">
+        <v>1.2151765699646572E-9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>61</v>
       </c>
@@ -4493,10 +3842,10 @@
       </c>
       <c r="D65">
         <f t="shared" si="0"/>
-        <v>1.5830903165959939E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.5">
+        <v>3.9546392812489344E-9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>62</v>
       </c>
@@ -4510,10 +3859,10 @@
       </c>
       <c r="D66">
         <f t="shared" si="0"/>
-        <v>2.7165938467371225E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.5">
+        <v>1.2365241000331714E-8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>63</v>
       </c>
@@ -4527,10 +3876,10 @@
       </c>
       <c r="D67">
         <f t="shared" si="0"/>
-        <v>4.4789060589685804E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.5">
+        <v>3.7147236891105796E-8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>64</v>
       </c>
@@ -4544,15 +3893,15 @@
       </c>
       <c r="D68">
         <f t="shared" si="0"/>
-        <v>7.0949185692462842E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.5">
+        <v>1.0722070689395228E-7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>65</v>
       </c>
       <c r="B69">
-        <f t="shared" ref="B69:D104" si="1">_xlfn.NORM.DIST($A69,B$1,B$2,0)</f>
+        <f t="shared" ref="B69:D106" si="1">_xlfn.NORM.DIST($A69,B$1,B$2,0)</f>
         <v>1.0104542167073785E-15</v>
       </c>
       <c r="C69">
@@ -4561,10 +3910,10 @@
       </c>
       <c r="D69">
         <f t="shared" si="1"/>
-        <v>1.0798193302637612E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.5">
+        <v>2.9734390294685955E-7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>66</v>
       </c>
@@ -4578,10 +3927,10 @@
       </c>
       <c r="D70">
         <f t="shared" si="1"/>
-        <v>1.5790031660178828E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7.922598182064151E-7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>67</v>
       </c>
@@ -4595,10 +3944,10 @@
       </c>
       <c r="D71">
         <f t="shared" si="1"/>
-        <v>2.2184166935891109E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.5">
+        <v>2.0281704130973521E-6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>68</v>
       </c>
@@ -4612,10 +3961,10 @@
       </c>
       <c r="D72">
         <f t="shared" si="1"/>
-        <v>2.9945493127148972E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.5">
+        <v>4.9884942580107064E-6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>69</v>
       </c>
@@ -4629,10 +3978,10 @@
       </c>
       <c r="D73">
         <f t="shared" si="1"/>
-        <v>3.8837210996642592E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.5">
+        <v>1.1788613551307972E-5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>70</v>
       </c>
@@ -4646,10 +3995,10 @@
       </c>
       <c r="D74">
         <f t="shared" si="1"/>
-        <v>4.8394144903828672E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.5">
+        <v>2.6766045152977071E-5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>71</v>
       </c>
@@ -4663,10 +4012,10 @@
       </c>
       <c r="D75">
         <f t="shared" si="1"/>
-        <v>5.7938310552296549E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.5">
+        <v>5.8389385158292053E-5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>72</v>
       </c>
@@ -4680,10 +4029,10 @@
       </c>
       <c r="D76">
         <f t="shared" si="1"/>
-        <v>6.6644920578359926E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.5">
+        <v>1.2238038602275437E-4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>73</v>
       </c>
@@ -4697,10 +4046,10 @@
       </c>
       <c r="D77">
         <f t="shared" si="1"/>
-        <v>7.3654028060664664E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.5">
+        <v>2.4644383369460396E-4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>74</v>
       </c>
@@ -4714,10 +4063,10 @@
       </c>
       <c r="D78">
         <f t="shared" si="1"/>
-        <v>7.8208538795091181E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.5">
+        <v>4.768176402929681E-4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>75</v>
       </c>
@@ -4731,10 +4080,10 @@
       </c>
       <c r="D79">
         <f t="shared" si="1"/>
-        <v>7.9788456080286549E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.5">
+        <v>8.8636968238760153E-4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>76</v>
       </c>
@@ -4748,10 +4097,10 @@
       </c>
       <c r="D80">
         <f t="shared" si="1"/>
-        <v>7.8208538795091181E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.5">
+        <v>1.5830903165959939E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>77</v>
       </c>
@@ -4765,10 +4114,10 @@
       </c>
       <c r="D81">
         <f t="shared" si="1"/>
-        <v>7.3654028060664664E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.5">
+        <v>2.7165938467371225E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>78</v>
       </c>
@@ -4782,10 +4131,10 @@
       </c>
       <c r="D82">
         <f t="shared" si="1"/>
-        <v>6.6644920578359926E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.5">
+        <v>4.4789060589685804E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>79</v>
       </c>
@@ -4799,10 +4148,10 @@
       </c>
       <c r="D83">
         <f t="shared" si="1"/>
-        <v>5.7938310552296549E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7.0949185692462842E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>80</v>
       </c>
@@ -4816,10 +4165,10 @@
       </c>
       <c r="D84">
         <f t="shared" si="1"/>
-        <v>4.8394144903828672E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.5">
+        <v>1.0798193302637612E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>81</v>
       </c>
@@ -4833,10 +4182,10 @@
       </c>
       <c r="D85">
         <f t="shared" si="1"/>
-        <v>3.8837210996642592E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.5">
+        <v>1.5790031660178828E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>82</v>
       </c>
@@ -4850,10 +4199,10 @@
       </c>
       <c r="D86">
         <f t="shared" si="1"/>
-        <v>2.9945493127148972E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.5">
+        <v>2.2184166935891109E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>83</v>
       </c>
@@ -4867,10 +4216,10 @@
       </c>
       <c r="D87">
         <f t="shared" si="1"/>
-        <v>2.2184166935891109E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.5">
+        <v>2.9945493127148972E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>84</v>
       </c>
@@ -4884,10 +4233,10 @@
       </c>
       <c r="D88">
         <f t="shared" si="1"/>
-        <v>1.5790031660178828E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.5">
+        <v>3.8837210996642592E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>85</v>
       </c>
@@ -4901,10 +4250,10 @@
       </c>
       <c r="D89">
         <f t="shared" si="1"/>
-        <v>1.0798193302637612E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.5">
+        <v>4.8394144903828672E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>86</v>
       </c>
@@ -4918,10 +4267,10 @@
       </c>
       <c r="D90">
         <f t="shared" si="1"/>
-        <v>7.0949185692462842E-3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.5">
+        <v>5.7938310552296549E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>87</v>
       </c>
@@ -4935,10 +4284,10 @@
       </c>
       <c r="D91">
         <f t="shared" si="1"/>
-        <v>4.4789060589685804E-3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.5">
+        <v>6.6644920578359926E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>88</v>
       </c>
@@ -4952,10 +4301,10 @@
       </c>
       <c r="D92">
         <f t="shared" si="1"/>
-        <v>2.7165938467371225E-3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7.3654028060664664E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>89</v>
       </c>
@@ -4969,10 +4318,10 @@
       </c>
       <c r="D93">
         <f t="shared" si="1"/>
-        <v>1.5830903165959939E-3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7.8208538795091181E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>90</v>
       </c>
@@ -4986,10 +4335,10 @@
       </c>
       <c r="D94">
         <f t="shared" si="1"/>
-        <v>8.8636968238760153E-4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7.9788456080286549E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>91</v>
       </c>
@@ -5003,10 +4352,10 @@
       </c>
       <c r="D95">
         <f t="shared" si="1"/>
-        <v>4.768176402929681E-4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7.8208538795091181E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>92</v>
       </c>
@@ -5020,10 +4369,10 @@
       </c>
       <c r="D96">
         <f t="shared" si="1"/>
-        <v>2.4644383369460396E-4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7.3654028060664664E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>93</v>
       </c>
@@ -5037,10 +4386,10 @@
       </c>
       <c r="D97">
         <f t="shared" si="1"/>
-        <v>1.2238038602275437E-4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.5">
+        <v>6.6644920578359926E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>94</v>
       </c>
@@ -5054,10 +4403,10 @@
       </c>
       <c r="D98">
         <f t="shared" si="1"/>
-        <v>5.8389385158292053E-5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.5">
+        <v>5.7938310552296549E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>95</v>
       </c>
@@ -5071,10 +4420,10 @@
       </c>
       <c r="D99">
         <f t="shared" si="1"/>
-        <v>2.6766045152977071E-5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.5">
+        <v>4.8394144903828672E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>96</v>
       </c>
@@ -5088,10 +4437,10 @@
       </c>
       <c r="D100">
         <f t="shared" si="1"/>
-        <v>1.1788613551307972E-5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.5">
+        <v>3.8837210996642592E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>97</v>
       </c>
@@ -5105,10 +4454,10 @@
       </c>
       <c r="D101">
         <f t="shared" si="1"/>
-        <v>4.9884942580107064E-6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.5">
+        <v>2.9945493127148972E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>98</v>
       </c>
@@ -5122,10 +4471,10 @@
       </c>
       <c r="D102">
         <f t="shared" si="1"/>
-        <v>2.0281704130973521E-6</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.5">
+        <v>2.2184166935891109E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>99</v>
       </c>
@@ -5139,10 +4488,10 @@
       </c>
       <c r="D103">
         <f t="shared" si="1"/>
-        <v>7.922598182064151E-7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.5">
+        <v>1.5790031660178828E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>100</v>
       </c>
@@ -5156,7 +4505,636 @@
       </c>
       <c r="D104">
         <f t="shared" si="1"/>
+        <v>1.0798193302637612E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>101</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="1"/>
+        <v>5.3981072887765765E-52</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="1"/>
+        <v>2.0414611188612204E-24</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="1"/>
+        <v>7.0949185692462842E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>102</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="1"/>
+        <v>2.5310480932095036E-53</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="1"/>
+        <v>2.6019232398478258E-25</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="1"/>
+        <v>4.4789060589685804E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>103</v>
+      </c>
+      <c r="B107">
+        <f t="shared" ref="B107:D141" si="2">_xlfn.NORM.DIST($A107,B$1,B$2,0)</f>
+        <v>1.1402169781882576E-54</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="2"/>
+        <v>3.1862222654019333E-26</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="2"/>
+        <v>2.7165938467371225E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>104</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="2"/>
+        <v>4.9351781031311882E-56</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="2"/>
+        <v>3.748744804683593E-27</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="2"/>
+        <v>1.5830903165959939E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>105</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="2"/>
+        <v>2.052326145583807E-57</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="2"/>
+        <v>4.2376385070187066E-28</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="2"/>
+        <v>8.8636968238760153E-4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>106</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="2"/>
+        <v>8.2000810716664381E-59</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="2"/>
+        <v>4.6024614176963103E-29</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="2"/>
+        <v>4.768176402929681E-4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>107</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="2"/>
+        <v>3.14787975955329E-60</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="2"/>
+        <v>4.8026908000170723E-30</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="2"/>
+        <v>2.4644383369460396E-4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>108</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="2"/>
+        <v>1.161037761305745E-61</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="2"/>
+        <v>4.8151222636786023E-31</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="2"/>
+        <v>1.2238038602275437E-4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>109</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="2"/>
+        <v>4.1143646060572245E-63</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="2"/>
+        <v>4.6382935545122348E-32</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="2"/>
+        <v>5.8389385158292053E-5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>110</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="2"/>
+        <v>1.4008364268637165E-64</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="2"/>
+        <v>4.2927674713261212E-33</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="2"/>
+        <v>2.6766045152977071E-5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>111</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="2"/>
+        <v>4.5824770473988882E-66</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="2"/>
+        <v>3.8171982692736328E-34</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="2"/>
+        <v>1.1788613551307972E-5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>112</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="2"/>
+        <v>1.4402616305438232E-67</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="2"/>
+        <v>3.2612214696792905E-35</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="2"/>
+        <v>4.9884942580107064E-6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>113</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="2"/>
+        <v>4.3492132685982986E-69</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="2"/>
+        <v>2.6769735985085759E-36</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="2"/>
+        <v>2.0281704130973521E-6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>114</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="2"/>
+        <v>1.2618514711207478E-70</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="2"/>
+        <v>2.1112327004905475E-37</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="2"/>
+        <v>7.922598182064151E-7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>115</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="2"/>
+        <v>3.5174990851902079E-72</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="2"/>
+        <v>1.5997655514013625E-38</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="2"/>
         <v>2.9734390294685955E-7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>116</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="2"/>
+        <v>9.4208040061802338E-74</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="2"/>
+        <v>1.1646751199473137E-39</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="2"/>
+        <v>1.0722070689395228E-7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>117</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="2"/>
+        <v>2.4242095898157641E-75</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="2"/>
+        <v>8.1466953550556908E-41</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="2"/>
+        <v>3.7147236891105796E-8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>118</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="2"/>
+        <v>5.9935009963457913E-77</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="2"/>
+        <v>5.4750283847106161E-42</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="2"/>
+        <v>1.2365241000331714E-8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>119</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="2"/>
+        <v>1.423702407847759E-78</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="2"/>
+        <v>3.5352448205070021E-43</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="2"/>
+        <v>3.9546392812489344E-9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>120</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="2"/>
+        <v>3.2492720735472156E-80</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="2"/>
+        <v>2.1932131187779426E-44</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="2"/>
+        <v>1.2151765699646572E-9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>121</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="2"/>
+        <v>7.1249391080028439E-82</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="2"/>
+        <v>1.3072853550637316E-45</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="2"/>
+        <v>3.5875678159281587E-10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>122</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="2"/>
+        <v>1.5010821372910536E-83</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="2"/>
+        <v>7.4866611597700179E-47</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="2"/>
+        <v>1.0176280563290078E-10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>123</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="2"/>
+        <v>3.0384771695922393E-85</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="2"/>
+        <v>4.119402044817862E-48</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="2"/>
+        <v>2.7733599883306343E-11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>124</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="2"/>
+        <v>5.9092956493182455E-87</v>
+      </c>
+      <c r="C128">
+        <f t="shared" si="2"/>
+        <v>2.1777519106554431E-49</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="2"/>
+        <v>7.2619230035836012E-12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>125</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="2"/>
+        <v>1.1041896724319528E-88</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="2"/>
+        <v>1.1061419099688832E-50</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="2"/>
+        <v>1.8269440816729187E-12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>126</v>
+      </c>
+      <c r="B130">
+        <f t="shared" si="2"/>
+        <v>1.9823478475732356E-90</v>
+      </c>
+      <c r="C130">
+        <f t="shared" si="2"/>
+        <v>5.3981072887765765E-52</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="2"/>
+        <v>4.4159799262742782E-13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>127</v>
+      </c>
+      <c r="B131">
+        <f t="shared" si="2"/>
+        <v>3.4193555916056193E-92</v>
+      </c>
+      <c r="C131">
+        <f t="shared" si="2"/>
+        <v>2.5310480932095036E-53</v>
+      </c>
+      <c r="D131">
+        <f t="shared" si="2"/>
+        <v>1.0255507273593326E-13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>128</v>
+      </c>
+      <c r="B132">
+        <f t="shared" si="2"/>
+        <v>5.6667870302874327E-94</v>
+      </c>
+      <c r="C132">
+        <f t="shared" si="2"/>
+        <v>1.1402169781882576E-54</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="2"/>
+        <v>2.2883129803602738E-14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>129</v>
+      </c>
+      <c r="B133">
+        <f t="shared" si="2"/>
+        <v>9.0231408390960839E-96</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="2"/>
+        <v>4.9351781031311882E-56</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="2"/>
+        <v>4.9057105713928646E-15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>130</v>
+      </c>
+      <c r="B134">
+        <f t="shared" si="2"/>
+        <v>1.3804058840254442E-97</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="2"/>
+        <v>2.052326145583807E-57</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="2"/>
+        <v>1.0104542167073785E-15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>131</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="2"/>
+        <v>2.0290095361764698E-99</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="2"/>
+        <v>8.2000810716664381E-59</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="2"/>
+        <v>1.999675749699436E-16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>132</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="2"/>
+        <v>2.8654286262991689E-101</v>
+      </c>
+      <c r="C136">
+        <f t="shared" si="2"/>
+        <v>3.14787975955329E-60</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="2"/>
+        <v>3.8021630758159273E-17</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>133</v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="2"/>
+        <v>3.8879737411187477E-103</v>
+      </c>
+      <c r="C137">
+        <f t="shared" si="2"/>
+        <v>1.161037761305745E-61</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="2"/>
+        <v>6.9459254971324167E-18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>134</v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="2"/>
+        <v>5.0685679330321145E-105</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="2"/>
+        <v>4.1143646060572245E-63</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="2"/>
+        <v>1.2191516259124836E-18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>135</v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="2"/>
+        <v>6.3485631056505244E-107</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="2"/>
+        <v>1.4008364268637165E-64</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="2"/>
+        <v>2.0559547143337832E-19</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>136</v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="2"/>
+        <v>7.6400083087626739E-109</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="2"/>
+        <v>4.5824770473988882E-66</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="2"/>
+        <v>3.3311760647598577E-20</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>137</v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="2"/>
+        <v>8.8336551585193934E-111</v>
+      </c>
+      <c r="C141">
+        <f t="shared" si="2"/>
+        <v>1.4402616305438232E-67</v>
+      </c>
+      <c r="D141">
+        <f t="shared" si="2"/>
+        <v>5.1857294022007419E-21</v>
       </c>
     </row>
   </sheetData>
@@ -5171,7 +5149,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5183,7 +5161,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
